--- a/hp/RP-RRP/RS(6,3)数据-PRM-PPR.xlsx
+++ b/hp/RP-RRP/RS(6,3)数据-PRM-PPR.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27142E87-D436-4C54-85A0-E2D662ABFA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18645" yWindow="4545" windowWidth="10155" windowHeight="4830" firstSheet="1" activeTab="2"/>
+    <workbookView minimized="1" xWindow="2760" yWindow="8985" windowWidth="9600" windowHeight="5265" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原始数据" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
     <sheet name="resnet18" sheetId="5" r:id="rId5"/>
     <sheet name="resnet34" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -135,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,7 +224,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -308,7 +310,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:numRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -316,7 +318,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:numRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -375,7 +377,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:numRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -383,7 +385,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:numRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -442,7 +444,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:numRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -450,7 +452,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:numRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -509,7 +511,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:numRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -517,7 +519,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:numRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -657,7 +659,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1570,7 +1571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1637,27 +1638,27 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:H3" ca="1" si="0">(RANDBETWEEN(1,100)/100)*2-1</f>
-        <v>-0.96</v>
+        <v>-0.62</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32000000000000006</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.98</v>
+        <v>-0.62</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
+        <v>-0.76</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.45999999999999996</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.96</v>
+        <v>0.87999999999999989</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1666,27 +1667,27 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:H4" ca="1" si="1">C2-C3</f>
-        <v>65.319999999999993</v>
+        <v>64.98</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>69.100000000000009</v>
+        <v>68.92</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>73.12</v>
+        <v>72.760000000000005</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>72.8</v>
+        <v>74.36</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>74.61999999999999</v>
+        <v>73.84</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>75.819999999999993</v>
+        <v>73.98</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1744,27 +1745,27 @@
       </c>
       <c r="C7">
         <f t="shared" ref="C7:H7" ca="1" si="2">(RANDBETWEEN(1,100)/100)*2-1</f>
-        <v>0.43999999999999995</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.74</v>
+        <v>0.87999999999999989</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.18000000000000005</v>
+        <v>-0.12</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.21999999999999997</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.12</v>
+        <v>0.62000000000000011</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.94</v>
+        <v>0.34000000000000008</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1773,27 +1774,27 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" ref="C8:H8" ca="1" si="3">C6-C7</f>
-        <v>70.320000000000007</v>
+        <v>70.36</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>82.94</v>
+        <v>81.320000000000007</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>83.34</v>
+        <v>83.28</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>83.3</v>
+        <v>82.86</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>84.52000000000001</v>
+        <v>83.78</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>85.72</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1851,27 +1852,27 @@
       </c>
       <c r="C11">
         <f t="shared" ref="C11:H11" ca="1" si="4">(RANDBETWEEN(1,100)/100)*2-1</f>
-        <v>-0.24</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60000000000000009</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="4"/>
-        <v>6.0000000000000053E-2</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.19999999999999996</v>
+        <v>-0.48</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43999999999999995</v>
+        <v>0.12000000000000011</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19999999999999996</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1880,27 +1881,27 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" ref="C12:H12" ca="1" si="5">C10-C11</f>
-        <v>75.319999999999993</v>
+        <v>74.899999999999991</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>76.5</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>79.42</v>
+        <v>79.260000000000005</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>81.84</v>
+        <v>82.12</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>82.42</v>
+        <v>82.74</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>82.24</v>
+        <v>81.739999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1958,27 +1959,27 @@
       </c>
       <c r="C15">
         <f t="shared" ref="C15:H15" ca="1" si="6">(RANDBETWEEN(1,100)/100)*2-1</f>
-        <v>-0.28000000000000003</v>
+        <v>-0.64</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="6"/>
-        <v>0.52</v>
+        <v>-0.31999999999999995</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="6"/>
-        <v>8.0000000000000071E-2</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="6"/>
-        <v>0.43999999999999995</v>
+        <v>-0.9</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.19999999999999996</v>
+        <v>-0.78</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="6"/>
-        <v>0.7</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1987,27 +1988,27 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" ref="C16:H16" ca="1" si="7">C14-C15</f>
-        <v>70.78</v>
+        <v>71.14</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>74.98</v>
+        <v>75.819999999999993</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>76.62</v>
+        <v>76.5</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>80.100000000000009</v>
+        <v>81.440000000000012</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>82.100000000000009</v>
+        <v>82.68</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>79.86</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
@@ -2040,7 +2041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2370,11 +2371,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2460,7 +2461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2548,7 +2549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2637,7 +2638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
